--- a/N 9435 UG WIWIN.xlsx
+++ b/N 9435 UG WIWIN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>15/8/2023</t>
+  </si>
+  <si>
+    <t>28/3/2024</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
@@ -1081,12 +1084,25 @@
       <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1">
+        <v>288107</v>
+      </c>
+      <c r="F22" s="1">
+        <f>10000+E22</f>
+        <v>298107</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
